--- a/Rule-Based Classifier/shuffled_df_100_rows_old.xlsx
+++ b/Rule-Based Classifier/shuffled_df_100_rows_old.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia Belkina\MANNHEIM\MASTER_THESIS_CODE\Rule-Based Classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D980F9-7C62-426F-9A67-3AEA4E573503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8BFAA1-A0E3-45A1-8A07-6C88A338B14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="2" r:id="rId1"/>
@@ -1631,7 +1631,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Rule-Based Classifier/shuffled_df_100_rows_old.xlsx
+++ b/Rule-Based Classifier/shuffled_df_100_rows_old.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia Belkina\MANNHEIM\MASTER_THESIS_CODE\Rule-Based Classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8BFAA1-A0E3-45A1-8A07-6C88A338B14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4961A4-986D-461F-BD99-1F670B8C2A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1631,7 +1631,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
